--- a/evidence/TC_TEMPLETE_00_EVI.xlsx
+++ b/evidence/TC_TEMPLETE_00_EVI.xlsx
@@ -71,7 +71,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>106870</xdr:rowOff>
+      <xdr:rowOff>128968</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -89,7 +89,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6629400" cy="3916870"/>
+          <a:ext cx="6629400" cy="3938968"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -109,7 +109,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>106870</xdr:rowOff>
+      <xdr:rowOff>128968</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -127,7 +127,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4762500"/>
-          <a:ext cx="6629400" cy="3916870"/>
+          <a:ext cx="6629400" cy="3938968"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -152,7 +152,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>106870</xdr:rowOff>
+      <xdr:rowOff>128968</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -170,7 +170,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6629400" cy="3916870"/>
+          <a:ext cx="6629400" cy="3938968"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -190,7 +190,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>106870</xdr:rowOff>
+      <xdr:rowOff>128968</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -208,7 +208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4762500"/>
-          <a:ext cx="6629400" cy="3916870"/>
+          <a:ext cx="6629400" cy="3938968"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -233,7 +233,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>106870</xdr:rowOff>
+      <xdr:rowOff>128968</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -251,7 +251,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6629400" cy="3916870"/>
+          <a:ext cx="6629400" cy="3938968"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -271,7 +271,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>106870</xdr:rowOff>
+      <xdr:rowOff>128968</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -289,7 +289,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4762500"/>
-          <a:ext cx="6629400" cy="3916870"/>
+          <a:ext cx="6629400" cy="3938968"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -314,7 +314,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>106870</xdr:rowOff>
+      <xdr:rowOff>128968</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -332,7 +332,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6629400" cy="3916870"/>
+          <a:ext cx="6629400" cy="3938968"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -352,7 +352,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>106870</xdr:rowOff>
+      <xdr:rowOff>128968</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -370,7 +370,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4762500"/>
-          <a:ext cx="6629400" cy="3916870"/>
+          <a:ext cx="6629400" cy="3938968"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
